--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.36822099999999</v>
+        <v>75.14161166666668</v>
       </c>
       <c r="H2">
-        <v>205.104663</v>
+        <v>225.424835</v>
       </c>
       <c r="I2">
-        <v>0.1172037804183917</v>
+        <v>0.1054834673917388</v>
       </c>
       <c r="J2">
-        <v>0.1242689311687434</v>
+        <v>0.1129643088743037</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1137376666666667</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N2">
-        <v>0.341213</v>
+        <v>0.632891</v>
       </c>
       <c r="O2">
-        <v>0.0008124832852874852</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P2">
-        <v>0.000813605578437685</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q2">
-        <v>7.776041930690999</v>
+        <v>15.85214991644278</v>
       </c>
       <c r="R2">
-        <v>69.98437737621899</v>
+        <v>142.669349247985</v>
       </c>
       <c r="S2">
-        <v>9.522611256244794E-05</v>
+        <v>0.0003329381294481846</v>
       </c>
       <c r="T2">
-        <v>0.0001011058956253783</v>
+        <v>0.0003565499563201043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.36822099999999</v>
+        <v>75.14161166666668</v>
       </c>
       <c r="H3">
-        <v>205.104663</v>
+        <v>225.424835</v>
       </c>
       <c r="I3">
-        <v>0.1172037804183917</v>
+        <v>0.1054834673917388</v>
       </c>
       <c r="J3">
-        <v>0.1242689311687434</v>
+        <v>0.1129643088743037</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.09946</v>
       </c>
       <c r="O3">
-        <v>0.004999153485153449</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P3">
-        <v>0.005006058877319394</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q3">
-        <v>47.84544842022</v>
+        <v>52.58560267656667</v>
       </c>
       <c r="R3">
-        <v>430.60903578198</v>
+        <v>473.2704240891001</v>
       </c>
       <c r="S3">
-        <v>0.0005859196873517626</v>
+        <v>0.001104440235761428</v>
       </c>
       <c r="T3">
-        <v>0.0006220975860522805</v>
+        <v>0.00118276665538901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.36822099999999</v>
+        <v>75.14161166666668</v>
       </c>
       <c r="H4">
-        <v>205.104663</v>
+        <v>225.424835</v>
       </c>
       <c r="I4">
-        <v>0.1172037804183917</v>
+        <v>0.1054834673917388</v>
       </c>
       <c r="J4">
-        <v>0.1242689311687434</v>
+        <v>0.1129643088743037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.57662766666667</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N4">
-        <v>97.729883</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O4">
-        <v>0.2327106423571246</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P4">
-        <v>0.2330320884282319</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q4">
-        <v>2227.206079749381</v>
+        <v>2431.998186834666</v>
       </c>
       <c r="R4">
-        <v>20044.85471774443</v>
+        <v>21887.983681512</v>
       </c>
       <c r="S4">
-        <v>0.02727456702784732</v>
+        <v>0.05107855599487088</v>
       </c>
       <c r="T4">
-        <v>0.02895864855699647</v>
+        <v>0.05470102489928108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>68.36822099999999</v>
+        <v>75.14161166666668</v>
       </c>
       <c r="H5">
-        <v>205.104663</v>
+        <v>225.424835</v>
       </c>
       <c r="I5">
-        <v>0.1172037804183917</v>
+        <v>0.1054834673917388</v>
       </c>
       <c r="J5">
-        <v>0.1242689311687434</v>
+        <v>0.1129643088743037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5793</v>
+        <v>33.562467</v>
       </c>
       <c r="N5">
-        <v>1.1586</v>
+        <v>100.687401</v>
       </c>
       <c r="O5">
-        <v>0.004138220705251912</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P5">
-        <v>0.002762624586923423</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q5">
-        <v>39.6057104253</v>
+        <v>2521.937861889315</v>
       </c>
       <c r="R5">
-        <v>237.6342625518</v>
+        <v>22697.44075700384</v>
       </c>
       <c r="S5">
-        <v>0.0004850151108611873</v>
+        <v>0.05296753303165833</v>
       </c>
       <c r="T5">
-        <v>0.000343308404637465</v>
+        <v>0.05672396736331347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.36822099999999</v>
+        <v>172.2060676666667</v>
       </c>
       <c r="H6">
-        <v>205.104663</v>
+        <v>516.618203</v>
       </c>
       <c r="I6">
-        <v>0.1172037804183917</v>
+        <v>0.2417421282359116</v>
       </c>
       <c r="J6">
-        <v>0.1242689311687434</v>
+        <v>0.2588863744927647</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>106.018215</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N6">
-        <v>318.054645</v>
+        <v>0.632891</v>
       </c>
       <c r="O6">
-        <v>0.7573395001671824</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P6">
-        <v>0.7583856225290876</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q6">
-        <v>7248.276753145514</v>
+        <v>36.32922345720811</v>
       </c>
       <c r="R6">
-        <v>65234.49077830963</v>
+        <v>326.963011114873</v>
       </c>
       <c r="S6">
-        <v>0.088763052479769</v>
+        <v>0.0007630121949327478</v>
       </c>
       <c r="T6">
-        <v>0.09424377072543179</v>
+        <v>0.0008171246868776492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>516.618203</v>
       </c>
       <c r="I7">
-        <v>0.2952132123127602</v>
+        <v>0.2417421282359116</v>
       </c>
       <c r="J7">
-        <v>0.3130089339271965</v>
+        <v>0.2588863744927647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1137376666666667</v>
+        <v>0.69982</v>
       </c>
       <c r="N7">
-        <v>0.341213</v>
+        <v>2.09946</v>
       </c>
       <c r="O7">
-        <v>0.0008124832852874852</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P7">
-        <v>0.000813605578437685</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q7">
-        <v>19.58631632224878</v>
+        <v>120.5132502744867</v>
       </c>
       <c r="R7">
-        <v>176.276846900239</v>
+        <v>1084.61925247038</v>
       </c>
       <c r="S7">
-        <v>0.0002398558006001433</v>
+        <v>0.002531105012985659</v>
       </c>
       <c r="T7">
-        <v>0.0002546658147439998</v>
+        <v>0.002710609876127405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>516.618203</v>
       </c>
       <c r="I8">
-        <v>0.2952132123127602</v>
+        <v>0.2417421282359116</v>
       </c>
       <c r="J8">
-        <v>0.3130089339271965</v>
+        <v>0.2588863744927647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.69982</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N8">
-        <v>2.09946</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O8">
-        <v>0.004999153485153449</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P8">
-        <v>0.005006058877319394</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q8">
-        <v>120.5132502744867</v>
+        <v>5573.540878855621</v>
       </c>
       <c r="R8">
-        <v>1084.61925247038</v>
+        <v>50161.86790970059</v>
       </c>
       <c r="S8">
-        <v>0.00147581615919668</v>
+        <v>0.1170594704434632</v>
       </c>
       <c r="T8">
-        <v>0.001566941152366522</v>
+        <v>0.1253612770115806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>516.618203</v>
       </c>
       <c r="I9">
-        <v>0.2952132123127602</v>
+        <v>0.2417421282359116</v>
       </c>
       <c r="J9">
-        <v>0.3130089339271965</v>
+        <v>0.2588863744927647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.57662766666667</v>
+        <v>33.562467</v>
       </c>
       <c r="N9">
-        <v>97.729883</v>
+        <v>100.687401</v>
       </c>
       <c r="O9">
-        <v>0.2327106423571246</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P9">
-        <v>0.2330320884282319</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q9">
-        <v>5609.892948317805</v>
+        <v>5779.660463262267</v>
       </c>
       <c r="R9">
-        <v>50489.03653486025</v>
+        <v>52016.9441693604</v>
       </c>
       <c r="S9">
-        <v>0.06869925626961262</v>
+        <v>0.1213885405845299</v>
       </c>
       <c r="T9">
-        <v>0.07294112556974904</v>
+        <v>0.1299973629181791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>172.2060676666667</v>
+        <v>162.8790026666667</v>
       </c>
       <c r="H10">
-        <v>516.618203</v>
+        <v>488.637008</v>
       </c>
       <c r="I10">
-        <v>0.2952132123127602</v>
+        <v>0.2286488349864594</v>
       </c>
       <c r="J10">
-        <v>0.3130089339271965</v>
+        <v>0.2448645105989656</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5793</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N10">
-        <v>1.1586</v>
+        <v>0.632891</v>
       </c>
       <c r="O10">
-        <v>0.004138220705251912</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P10">
-        <v>0.002762624586923423</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q10">
-        <v>99.75897499929999</v>
+        <v>34.36155162556977</v>
       </c>
       <c r="R10">
-        <v>598.5538499958001</v>
+        <v>309.253964630128</v>
       </c>
       <c r="S10">
-        <v>0.001221657427656593</v>
+        <v>0.0007216857513622117</v>
       </c>
       <c r="T10">
-        <v>0.0008647261767939622</v>
+        <v>0.0007728673899607664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>172.2060676666667</v>
+        <v>162.8790026666667</v>
       </c>
       <c r="H11">
-        <v>516.618203</v>
+        <v>488.637008</v>
       </c>
       <c r="I11">
-        <v>0.2952132123127602</v>
+        <v>0.2286488349864594</v>
       </c>
       <c r="J11">
-        <v>0.3130089339271965</v>
+        <v>0.2448645105989656</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>106.018215</v>
+        <v>0.69982</v>
       </c>
       <c r="N11">
-        <v>318.054645</v>
+        <v>2.09946</v>
       </c>
       <c r="O11">
-        <v>0.7573395001671824</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P11">
-        <v>0.7583856225290876</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q11">
-        <v>18256.97990618921</v>
+        <v>113.9859836461867</v>
       </c>
       <c r="R11">
-        <v>164312.8191557029</v>
+        <v>1025.87385281568</v>
       </c>
       <c r="S11">
-        <v>0.2235766266556941</v>
+        <v>0.002394014715890902</v>
       </c>
       <c r="T11">
-        <v>0.2373814752135429</v>
+        <v>0.00256379719497833</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>117.536677</v>
+        <v>162.8790026666667</v>
       </c>
       <c r="H12">
-        <v>352.610031</v>
+        <v>488.637008</v>
       </c>
       <c r="I12">
-        <v>0.2014933646176845</v>
+        <v>0.2286488349864594</v>
       </c>
       <c r="J12">
-        <v>0.2136395683590454</v>
+        <v>0.2448645105989656</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1137376666666667</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N12">
-        <v>0.341213</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O12">
-        <v>0.0008124832852874852</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P12">
-        <v>0.000813605578437685</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q12">
-        <v>13.36834738973367</v>
+        <v>5271.665464350083</v>
       </c>
       <c r="R12">
-        <v>120.315126507603</v>
+        <v>47444.98917915075</v>
       </c>
       <c r="S12">
-        <v>0.0001637099908482054</v>
+        <v>0.1107192682398733</v>
       </c>
       <c r="T12">
-        <v>0.0001738183445919385</v>
+        <v>0.1185714304340877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>117.536677</v>
+        <v>162.8790026666667</v>
       </c>
       <c r="H13">
-        <v>352.610031</v>
+        <v>488.637008</v>
       </c>
       <c r="I13">
-        <v>0.2014933646176845</v>
+        <v>0.2286488349864594</v>
       </c>
       <c r="J13">
-        <v>0.2136395683590454</v>
+        <v>0.2448645105989656</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.69982</v>
+        <v>33.562467</v>
       </c>
       <c r="N13">
-        <v>2.09946</v>
+        <v>100.687401</v>
       </c>
       <c r="O13">
-        <v>0.004999153485153449</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P13">
-        <v>0.005006058877319394</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q13">
-        <v>82.25451729814</v>
+        <v>5466.621151992911</v>
       </c>
       <c r="R13">
-        <v>740.2906556832601</v>
+        <v>49199.5903679362</v>
       </c>
       <c r="S13">
-        <v>0.001007296255963792</v>
+        <v>0.1148138662793329</v>
       </c>
       <c r="T13">
-        <v>0.001069492257730483</v>
+        <v>0.1229564155799388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>117.536677</v>
+        <v>141.52285</v>
       </c>
       <c r="H14">
-        <v>352.610031</v>
+        <v>283.0457</v>
       </c>
       <c r="I14">
-        <v>0.2014933646176845</v>
+        <v>0.1986691608290757</v>
       </c>
       <c r="J14">
-        <v>0.2136395683590454</v>
+        <v>0.1418391273541067</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>32.57662766666667</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N14">
-        <v>97.729883</v>
+        <v>0.632891</v>
       </c>
       <c r="O14">
-        <v>0.2327106423571246</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P14">
-        <v>0.2330320884282319</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q14">
-        <v>3828.948563806264</v>
+        <v>29.85617935311667</v>
       </c>
       <c r="R14">
-        <v>34460.53707425638</v>
+        <v>179.1370761187</v>
       </c>
       <c r="S14">
-        <v>0.04688965031087968</v>
+        <v>0.0006270607178642408</v>
       </c>
       <c r="T14">
-        <v>0.04978487478561436</v>
+        <v>0.0004476877269161285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>117.536677</v>
+        <v>141.52285</v>
       </c>
       <c r="H15">
-        <v>352.610031</v>
+        <v>283.0457</v>
       </c>
       <c r="I15">
-        <v>0.2014933646176845</v>
+        <v>0.1986691608290757</v>
       </c>
       <c r="J15">
-        <v>0.2136395683590454</v>
+        <v>0.1418391273541067</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5793</v>
+        <v>0.69982</v>
       </c>
       <c r="N15">
-        <v>1.1586</v>
+        <v>2.09946</v>
       </c>
       <c r="O15">
-        <v>0.004138220705251912</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P15">
-        <v>0.002762624586923423</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q15">
-        <v>68.0889969861</v>
+        <v>99.040520887</v>
       </c>
       <c r="R15">
-        <v>408.5339819166</v>
+        <v>594.2431253220001</v>
       </c>
       <c r="S15">
-        <v>0.0008338240134317752</v>
+        <v>0.002080119475118558</v>
       </c>
       <c r="T15">
-        <v>0.0005902059242884062</v>
+        <v>0.001485093760460072</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>117.536677</v>
+        <v>141.52285</v>
       </c>
       <c r="H16">
-        <v>352.610031</v>
+        <v>283.0457</v>
       </c>
       <c r="I16">
-        <v>0.2014933646176845</v>
+        <v>0.1986691608290757</v>
       </c>
       <c r="J16">
-        <v>0.2136395683590454</v>
+        <v>0.1418391273541067</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>106.018215</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N16">
-        <v>318.054645</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O16">
-        <v>0.7573395001671824</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P16">
-        <v>0.7583856225290876</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q16">
-        <v>12461.02869257155</v>
+        <v>4580.462236057634</v>
       </c>
       <c r="R16">
-        <v>112149.258233144</v>
+        <v>27482.7734163458</v>
       </c>
       <c r="S16">
-        <v>0.1525988840465611</v>
+        <v>0.09620212633109453</v>
       </c>
       <c r="T16">
-        <v>0.1620211770468202</v>
+        <v>0.06868315943686704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>99.49305899999999</v>
+        <v>141.52285</v>
       </c>
       <c r="H17">
-        <v>198.986118</v>
+        <v>283.0457</v>
       </c>
       <c r="I17">
-        <v>0.1705611535539311</v>
+        <v>0.1986691608290757</v>
       </c>
       <c r="J17">
-        <v>0.1205618236055289</v>
+        <v>0.1418391273541067</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1137376666666667</v>
+        <v>33.562467</v>
       </c>
       <c r="N17">
-        <v>0.341213</v>
+        <v>100.687401</v>
       </c>
       <c r="O17">
-        <v>0.0008124832852874852</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P17">
-        <v>0.000813605578437685</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q17">
-        <v>11.316108380189</v>
+        <v>4749.85598287095</v>
       </c>
       <c r="R17">
-        <v>67.89665028113399</v>
+        <v>28499.1358972257</v>
       </c>
       <c r="S17">
-        <v>0.0001385780863819211</v>
+        <v>0.0997598543049983</v>
       </c>
       <c r="T17">
-        <v>9.808977223207848E-05</v>
+        <v>0.07122318642986349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>99.49305899999999</v>
+        <v>160.6048636666667</v>
       </c>
       <c r="H18">
-        <v>198.986118</v>
+        <v>481.8145910000001</v>
       </c>
       <c r="I18">
-        <v>0.1705611535539311</v>
+        <v>0.2254564085568145</v>
       </c>
       <c r="J18">
-        <v>0.1205618236055289</v>
+        <v>0.2414456786798592</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.69982</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N18">
-        <v>2.09946</v>
+        <v>0.632891</v>
       </c>
       <c r="O18">
-        <v>0.004999153485153449</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P18">
-        <v>0.005006058877319394</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q18">
-        <v>69.62723254938</v>
+        <v>33.88179092362012</v>
       </c>
       <c r="R18">
-        <v>417.76339529628</v>
+        <v>304.936118312581</v>
       </c>
       <c r="S18">
-        <v>0.000852661385220927</v>
+        <v>0.0007116094758076773</v>
       </c>
       <c r="T18">
-        <v>0.0006035395873262727</v>
+        <v>0.0007620765093404146</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>99.49305899999999</v>
+        <v>160.6048636666667</v>
       </c>
       <c r="H19">
-        <v>198.986118</v>
+        <v>481.8145910000001</v>
       </c>
       <c r="I19">
-        <v>0.1705611535539311</v>
+        <v>0.2254564085568145</v>
       </c>
       <c r="J19">
-        <v>0.1205618236055289</v>
+        <v>0.2414456786798592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.57662766666667</v>
+        <v>0.69982</v>
       </c>
       <c r="N19">
-        <v>97.729883</v>
+        <v>2.09946</v>
       </c>
       <c r="O19">
-        <v>0.2327106423571246</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P19">
-        <v>0.2330320884282319</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q19">
-        <v>3241.148338460699</v>
+        <v>112.3944956912067</v>
       </c>
       <c r="R19">
-        <v>19446.89003076419</v>
+        <v>1011.55046122086</v>
       </c>
       <c r="S19">
-        <v>0.03969139560470746</v>
+        <v>0.002360589153707647</v>
       </c>
       <c r="T19">
-        <v>0.0280947735395125</v>
+        <v>0.002528001106509378</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>99.49305899999999</v>
+        <v>160.6048636666667</v>
       </c>
       <c r="H20">
-        <v>198.986118</v>
+        <v>481.8145910000001</v>
       </c>
       <c r="I20">
-        <v>0.1705611535539311</v>
+        <v>0.2254564085568145</v>
       </c>
       <c r="J20">
-        <v>0.1205618236055289</v>
+        <v>0.2414456786798592</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5793</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N20">
-        <v>1.1586</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O20">
-        <v>0.004138220705251912</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P20">
-        <v>0.002762624586923423</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q20">
-        <v>57.63632907869999</v>
+        <v>5198.061747289229</v>
       </c>
       <c r="R20">
-        <v>230.5453163148</v>
+        <v>46782.55572560307</v>
       </c>
       <c r="S20">
-        <v>0.0007058196971485282</v>
+        <v>0.109173390613946</v>
       </c>
       <c r="T20">
-        <v>0.0003330670581369588</v>
+        <v>0.1169159198414315</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>99.49305899999999</v>
+        <v>160.6048636666667</v>
       </c>
       <c r="H21">
-        <v>198.986118</v>
+        <v>481.8145910000001</v>
       </c>
       <c r="I21">
-        <v>0.1705611535539311</v>
+        <v>0.2254564085568145</v>
       </c>
       <c r="J21">
-        <v>0.1205618236055289</v>
+        <v>0.2414456786798592</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>106.018215</v>
+        <v>33.562467</v>
       </c>
       <c r="N21">
-        <v>318.054645</v>
+        <v>100.687401</v>
       </c>
       <c r="O21">
-        <v>0.7573395001671824</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P21">
-        <v>0.7583856225290876</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q21">
-        <v>10548.07652006968</v>
+        <v>5390.295436852</v>
       </c>
       <c r="R21">
-        <v>63288.4591204181</v>
+        <v>48512.658931668</v>
       </c>
       <c r="S21">
-        <v>0.1291726987804722</v>
+        <v>0.1132108193133532</v>
       </c>
       <c r="T21">
-        <v>0.09143235364832107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>125.723755</v>
-      </c>
-      <c r="H22">
-        <v>377.171265</v>
-      </c>
-      <c r="I22">
-        <v>0.2155284890972325</v>
-      </c>
-      <c r="J22">
-        <v>0.2285207429394858</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.1137376666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.341213</v>
-      </c>
-      <c r="O22">
-        <v>0.0008124832852874852</v>
-      </c>
-      <c r="P22">
-        <v>0.000813605578437685</v>
-      </c>
-      <c r="Q22">
-        <v>14.29952653827167</v>
-      </c>
-      <c r="R22">
-        <v>128.695738844445</v>
-      </c>
-      <c r="S22">
-        <v>0.0001751132948947674</v>
-      </c>
-      <c r="T22">
-        <v>0.0001859257512442899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>125.723755</v>
-      </c>
-      <c r="H23">
-        <v>377.171265</v>
-      </c>
-      <c r="I23">
-        <v>0.2155284890972325</v>
-      </c>
-      <c r="J23">
-        <v>0.2285207429394858</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.69982</v>
-      </c>
-      <c r="N23">
-        <v>2.09946</v>
-      </c>
-      <c r="O23">
-        <v>0.004999153485153449</v>
-      </c>
-      <c r="P23">
-        <v>0.005006058877319394</v>
-      </c>
-      <c r="Q23">
-        <v>87.98399822409999</v>
-      </c>
-      <c r="R23">
-        <v>791.8559840169</v>
-      </c>
-      <c r="S23">
-        <v>0.001077459997420287</v>
-      </c>
-      <c r="T23">
-        <v>0.001143988293843836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>125.723755</v>
-      </c>
-      <c r="H24">
-        <v>377.171265</v>
-      </c>
-      <c r="I24">
-        <v>0.2155284890972325</v>
-      </c>
-      <c r="J24">
-        <v>0.2285207429394858</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>32.57662766666667</v>
-      </c>
-      <c r="N24">
-        <v>97.729883</v>
-      </c>
-      <c r="O24">
-        <v>0.2327106423571246</v>
-      </c>
-      <c r="P24">
-        <v>0.2330320884282319</v>
-      </c>
-      <c r="Q24">
-        <v>4095.655955490221</v>
-      </c>
-      <c r="R24">
-        <v>36860.903599412</v>
-      </c>
-      <c r="S24">
-        <v>0.05015577314407749</v>
-      </c>
-      <c r="T24">
-        <v>0.05325266597635951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>125.723755</v>
-      </c>
-      <c r="H25">
-        <v>377.171265</v>
-      </c>
-      <c r="I25">
-        <v>0.2155284890972325</v>
-      </c>
-      <c r="J25">
-        <v>0.2285207429394858</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.5793</v>
-      </c>
-      <c r="N25">
-        <v>1.1586</v>
-      </c>
-      <c r="O25">
-        <v>0.004138220705251912</v>
-      </c>
-      <c r="P25">
-        <v>0.002762624586923423</v>
-      </c>
-      <c r="Q25">
-        <v>72.8317712715</v>
-      </c>
-      <c r="R25">
-        <v>436.990627629</v>
-      </c>
-      <c r="S25">
-        <v>0.0008919044561538285</v>
-      </c>
-      <c r="T25">
-        <v>0.0006313170230666308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>125.723755</v>
-      </c>
-      <c r="H26">
-        <v>377.171265</v>
-      </c>
-      <c r="I26">
-        <v>0.2155284890972325</v>
-      </c>
-      <c r="J26">
-        <v>0.2285207429394858</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>106.018215</v>
-      </c>
-      <c r="N26">
-        <v>318.054645</v>
-      </c>
-      <c r="O26">
-        <v>0.7573395001671824</v>
-      </c>
-      <c r="P26">
-        <v>0.7583856225290876</v>
-      </c>
-      <c r="Q26">
-        <v>13329.00808819732</v>
-      </c>
-      <c r="R26">
-        <v>119961.0727937759</v>
-      </c>
-      <c r="S26">
-        <v>0.1632282382046861</v>
-      </c>
-      <c r="T26">
-        <v>0.1733068458949716</v>
+        <v>0.1212396812225779</v>
       </c>
     </row>
   </sheetData>
